--- a/BangTienDo.xlsx
+++ b/BangTienDo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB1C112-C5C9-483D-B131-6DEE3758CA00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="6585" xr2:uid="{AE502A0D-59F2-484C-83B4-FCAFABD32694}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="BangTienDo" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Công việt</t>
   </si>
@@ -39,9 +38,6 @@
     <t>Decline</t>
   </si>
   <si>
-    <t>về đề tài đã nhận</t>
-  </si>
-  <si>
     <t>13/09/2018</t>
   </si>
   <si>
@@ -54,19 +50,19 @@
     <t>1. Đọc tài liệu về skin cancer</t>
   </si>
   <si>
-    <t>2. Vẽ giao diên cho app (cho User sử dụng và cho Doctor sử dụng)</t>
-  </si>
-  <si>
     <t>3. Code app ở mức manual</t>
   </si>
   <si>
-    <t xml:space="preserve">Gập giáo viên và nghe hướng dẫn </t>
+    <t>2. Vẽ giao diện cho app (cho User và Doctor)</t>
+  </si>
+  <si>
+    <t>Gặp giáo viên và nghe hướng dẫn về đề tài đã nhận</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,11 +216,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,129 +540,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7317A37A-E600-4CFB-B82E-8EB6BB1789E7}">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="16" style="9" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,31 +775,11 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>